--- a/Code/Results/Cases/Case_5_213/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_213/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9308017268626827</v>
+        <v>0.4304569862216283</v>
       </c>
       <c r="C2">
-        <v>0.1316296350520361</v>
+        <v>0.1468426154909395</v>
       </c>
       <c r="D2">
-        <v>0.07871827999887415</v>
+        <v>0.05358668348728912</v>
       </c>
       <c r="E2">
-        <v>0.05342589390189545</v>
+        <v>0.120689926605035</v>
       </c>
       <c r="F2">
-        <v>0.5791294288462367</v>
+        <v>1.019680491591998</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.4472245701292366</v>
+        <v>0.9743034593364719</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8674578129129884</v>
+        <v>0.2759078690219496</v>
       </c>
       <c r="L2">
-        <v>0.1605504487358118</v>
+        <v>0.211234619343621</v>
       </c>
       <c r="M2">
-        <v>0.2023387055970716</v>
+        <v>0.1391969961823527</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.826602631068738</v>
+        <v>3.673779994777703</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8090388156984432</v>
+        <v>0.3949936695926226</v>
       </c>
       <c r="C3">
-        <v>0.1266651331123327</v>
+        <v>0.1450407181090654</v>
       </c>
       <c r="D3">
-        <v>0.07247365457319432</v>
+        <v>0.05133406264796037</v>
       </c>
       <c r="E3">
-        <v>0.05295720674097026</v>
+        <v>0.1212344157329568</v>
       </c>
       <c r="F3">
-        <v>0.5613500227305792</v>
+        <v>1.022163523110535</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.4532941164217839</v>
+        <v>0.9820457855585829</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7583039651085528</v>
+        <v>0.2421641450222012</v>
       </c>
       <c r="L3">
-        <v>0.1463549215350426</v>
+        <v>0.2086123896107495</v>
       </c>
       <c r="M3">
-        <v>0.1767499176269283</v>
+        <v>0.1323664944757859</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.815513330447402</v>
+        <v>3.695655788436881</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7344025668403447</v>
+        <v>0.37330110422144</v>
       </c>
       <c r="C4">
-        <v>0.1236157197968311</v>
+        <v>0.1439243604575324</v>
       </c>
       <c r="D4">
-        <v>0.06862293604213932</v>
+        <v>0.0499356754888538</v>
       </c>
       <c r="E4">
-        <v>0.05273865582175397</v>
+        <v>0.1216141015285643</v>
       </c>
       <c r="F4">
-        <v>0.551487138298036</v>
+        <v>1.024239218371044</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.4578266818943284</v>
+        <v>0.9872413179532558</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6912770768516339</v>
+        <v>0.2214114467003441</v>
       </c>
       <c r="L4">
-        <v>0.1378088620752749</v>
+        <v>0.2071037662165764</v>
       </c>
       <c r="M4">
-        <v>0.1611199278090147</v>
+        <v>0.1282237426441846</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.812137717799033</v>
+        <v>3.710914529281439</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7040097467929627</v>
+        <v>0.3644824466773002</v>
       </c>
       <c r="C5">
-        <v>0.1223724107885147</v>
+        <v>0.1434669499546146</v>
       </c>
       <c r="D5">
-        <v>0.06704929506254587</v>
+        <v>0.04936200680949554</v>
       </c>
       <c r="E5">
-        <v>0.05266653274555821</v>
+        <v>0.1217802536035411</v>
       </c>
       <c r="F5">
-        <v>0.5477216290082509</v>
+        <v>1.025223740669674</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.4598698820183102</v>
+        <v>0.9894696601875523</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6639532683490756</v>
+        <v>0.2129465139255302</v>
       </c>
       <c r="L5">
-        <v>0.134366523992874</v>
+        <v>0.2065145667823813</v>
       </c>
       <c r="M5">
-        <v>0.1547685366840348</v>
+        <v>0.1265485363598735</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.811592762430834</v>
+        <v>3.717592163080695</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.698964098517763</v>
+        <v>0.3630194159510154</v>
       </c>
       <c r="C6">
-        <v>0.1221659113801792</v>
+        <v>0.1433908479062396</v>
       </c>
       <c r="D6">
-        <v>0.06678771662459582</v>
+        <v>0.04926651990708564</v>
       </c>
       <c r="E6">
-        <v>0.05265556644727454</v>
+        <v>0.121808533753871</v>
       </c>
       <c r="F6">
-        <v>0.5471113715601845</v>
+        <v>1.025395596899742</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.4602208160236145</v>
+        <v>0.9898463875515056</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6594153448604771</v>
+        <v>0.2115404471210383</v>
       </c>
       <c r="L6">
-        <v>0.1337972862481536</v>
+        <v>0.2064182775000063</v>
       </c>
       <c r="M6">
-        <v>0.1537149049893323</v>
+        <v>0.1262711583505478</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.811551513668888</v>
+        <v>3.718728741477392</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7339926018837559</v>
+        <v>0.373182085921087</v>
       </c>
       <c r="C7">
-        <v>0.12359895516542</v>
+        <v>0.143918201689246</v>
       </c>
       <c r="D7">
-        <v>0.06860173173148354</v>
+        <v>0.04992795420477592</v>
       </c>
       <c r="E7">
-        <v>0.05273761516785669</v>
+        <v>0.1216162960204965</v>
       </c>
       <c r="F7">
-        <v>0.5514353426485812</v>
+        <v>1.024251934449921</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.4578534513968435</v>
+        <v>0.9872709201692018</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6909086287550394</v>
+        <v>0.2212973175603707</v>
       </c>
       <c r="L7">
-        <v>0.1377622777595207</v>
+        <v>0.2070957164145852</v>
       </c>
       <c r="M7">
-        <v>0.1610342013213817</v>
+        <v>0.1282010974314929</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.812127047239386</v>
+        <v>3.71100272515595</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8887854847501444</v>
+        <v>0.4182125558631924</v>
       </c>
       <c r="C8">
-        <v>0.1299179021713357</v>
+        <v>0.1462234083133822</v>
       </c>
       <c r="D8">
-        <v>0.07656837191709087</v>
+        <v>0.05281316320583329</v>
       </c>
       <c r="E8">
-        <v>0.05324963430777885</v>
+        <v>0.120868261836069</v>
       </c>
       <c r="F8">
-        <v>0.5727734343855815</v>
+        <v>1.020422305380549</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.4491461003282211</v>
+        <v>0.9768813649245907</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8298176322710162</v>
+        <v>0.2642803546539767</v>
       </c>
       <c r="L8">
-        <v>0.1556189850790233</v>
+        <v>0.2103094620511072</v>
       </c>
       <c r="M8">
-        <v>0.1934971538008519</v>
+        <v>0.1368312832843337</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.822046319000393</v>
+        <v>3.680943697643826</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.193822358426246</v>
+        <v>0.5071461540978532</v>
       </c>
       <c r="C9">
-        <v>0.1423175227106057</v>
+        <v>0.150663775999206</v>
       </c>
       <c r="D9">
-        <v>0.09207492033068831</v>
+        <v>0.05834904085646997</v>
       </c>
       <c r="E9">
-        <v>0.05482522274947677</v>
+        <v>0.1197605389680234</v>
       </c>
       <c r="F9">
-        <v>0.6235150011690322</v>
+        <v>1.017282644966215</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.4387723104682024</v>
+        <v>0.9600102603098222</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.102581323659962</v>
+        <v>0.3482834488540334</v>
       </c>
       <c r="L9">
-        <v>0.1921060512757862</v>
+        <v>0.2174139395229133</v>
       </c>
       <c r="M9">
-        <v>0.2579301998416597</v>
+        <v>0.1541568723307023</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.870292514678255</v>
+        <v>3.636487554016071</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.419575030113037</v>
+        <v>0.572846109590472</v>
       </c>
       <c r="C10">
-        <v>0.1514598555212245</v>
+        <v>0.1538763405016397</v>
       </c>
       <c r="D10">
-        <v>0.1034198317226753</v>
+        <v>0.0623410694214499</v>
       </c>
       <c r="E10">
-        <v>0.05636383650988641</v>
+        <v>0.1191646370864952</v>
       </c>
       <c r="F10">
-        <v>0.6670086861590079</v>
+        <v>1.017638205870057</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>0.435685970397266</v>
+        <v>0.9497479141042788</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.303828922494432</v>
+        <v>0.4098084395359933</v>
       </c>
       <c r="L10">
-        <v>0.219988895548056</v>
+        <v>0.2231201489644121</v>
       </c>
       <c r="M10">
-        <v>0.3059298304367388</v>
+        <v>0.1671263506892799</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.925575330207721</v>
+        <v>3.612652957088443</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.522808115177014</v>
+        <v>0.6028085274433579</v>
       </c>
       <c r="C11">
-        <v>0.1556326533409305</v>
+        <v>0.1553268360063385</v>
       </c>
       <c r="D11">
-        <v>0.1085760591716252</v>
+        <v>0.06414067256979905</v>
       </c>
       <c r="E11">
-        <v>0.05715417607540907</v>
+        <v>0.1189406587721411</v>
       </c>
       <c r="F11">
-        <v>0.6883308045759406</v>
+        <v>1.01837772825445</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>0.4353729092909049</v>
+        <v>0.9455419240679177</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.395716106230253</v>
+        <v>0.4377527216997237</v>
       </c>
       <c r="L11">
-        <v>0.2329495954923715</v>
+        <v>0.2258212045567234</v>
       </c>
       <c r="M11">
-        <v>0.3279546356205216</v>
+        <v>0.1730778080252264</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.955571927281454</v>
+        <v>3.603725710979575</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.561992296647219</v>
+        <v>0.6141648029472719</v>
       </c>
       <c r="C12">
-        <v>0.1572153737027691</v>
+        <v>0.1558745098917882</v>
       </c>
       <c r="D12">
-        <v>0.1105283893689872</v>
+        <v>0.06481975759362513</v>
       </c>
       <c r="E12">
-        <v>0.05746713249300228</v>
+        <v>0.1188625988993568</v>
       </c>
       <c r="F12">
-        <v>0.6966424445357546</v>
+        <v>1.018740795757601</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>0.4354207232503526</v>
+        <v>0.9440156794015095</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.430573151686815</v>
+        <v>0.4483277895185438</v>
       </c>
       <c r="L12">
-        <v>0.2379009834205021</v>
+        <v>0.2268591028728935</v>
       </c>
       <c r="M12">
-        <v>0.3363260378128174</v>
+        <v>0.1753387809628748</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.967676155273352</v>
+        <v>3.600620486997514</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.55354894063143</v>
+        <v>0.6117185844162805</v>
       </c>
       <c r="C13">
-        <v>0.1568743824965679</v>
+        <v>0.1557566299965458</v>
       </c>
       <c r="D13">
-        <v>0.1101079225587611</v>
+        <v>0.06467361104114389</v>
       </c>
       <c r="E13">
-        <v>0.05739911255819941</v>
+        <v>0.1188791102940385</v>
       </c>
       <c r="F13">
-        <v>0.6948415514229325</v>
+        <v>1.018658910971936</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>0.4354028688226776</v>
+        <v>0.944341427443625</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.423063122526457</v>
+        <v>0.44605057151594</v>
       </c>
       <c r="L13">
-        <v>0.2368326198738089</v>
+        <v>0.2266349039133928</v>
       </c>
       <c r="M13">
-        <v>0.3345216601332837</v>
+        <v>0.1748515180672001</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.9650353527731</v>
+        <v>3.601277008399393</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.526029887820357</v>
+        <v>0.603742615211786</v>
       </c>
       <c r="C14">
-        <v>0.1557628096866637</v>
+        <v>0.1553719256346824</v>
       </c>
       <c r="D14">
-        <v>0.1087366803293008</v>
+        <v>0.06419658927937633</v>
       </c>
       <c r="E14">
-        <v>0.05717964519815233</v>
+        <v>0.1189341014401162</v>
       </c>
       <c r="F14">
-        <v>0.6890097519242104</v>
+        <v>1.018405934393741</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>0.4353734522287382</v>
+        <v>0.9454150269106165</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.398582510680399</v>
+        <v>0.4386228787441269</v>
       </c>
       <c r="L14">
-        <v>0.233356056432072</v>
+        <v>0.2259062915129988</v>
       </c>
       <c r="M14">
-        <v>0.3286427100054823</v>
+        <v>0.1732636743756899</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.956552528690139</v>
+        <v>3.603464724752314</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.509186119295748</v>
+        <v>0.5988584073218419</v>
       </c>
       <c r="C15">
-        <v>0.1550822920845434</v>
+        <v>0.1551360742764558</v>
       </c>
       <c r="D15">
-        <v>0.1078967397789086</v>
+        <v>0.06390408814574045</v>
       </c>
       <c r="E15">
-        <v>0.05704701617903929</v>
+        <v>0.118968664408353</v>
       </c>
       <c r="F15">
-        <v>0.6854690316819188</v>
+        <v>1.018261789715154</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>0.4353773913855647</v>
+        <v>0.9460812936542524</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.383595812028062</v>
+        <v>0.4340722977313476</v>
       </c>
       <c r="L15">
-        <v>0.231232332709709</v>
+        <v>0.2254619554668551</v>
       </c>
       <c r="M15">
-        <v>0.3250458499108362</v>
+        <v>0.1722920191162842</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.951455076389635</v>
+        <v>3.604840618002925</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.412840555692895</v>
+        <v>0.5708894520980436</v>
       </c>
       <c r="C16">
-        <v>0.15118748103869</v>
+        <v>0.1537813251886746</v>
       </c>
       <c r="D16">
-        <v>0.1030828042722263</v>
+        <v>0.06222312885029879</v>
       </c>
       <c r="E16">
-        <v>0.05631406175156251</v>
+        <v>0.1191802209127495</v>
       </c>
       <c r="F16">
-        <v>0.6656475384396288</v>
+        <v>1.017601497819555</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>0.4357291791430029</v>
+        <v>0.9500320884208335</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.297831755312643</v>
+        <v>0.4079812889665106</v>
       </c>
       <c r="L16">
-        <v>0.2191477585862032</v>
+        <v>0.2229457409249846</v>
       </c>
       <c r="M16">
-        <v>0.3044945931149812</v>
+        <v>0.1667384355704229</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.923716571251646</v>
+        <v>3.61327490636981</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.353883448299968</v>
+        <v>0.5537501943406653</v>
       </c>
       <c r="C17">
-        <v>0.1488020944329165</v>
+        <v>0.1529474149506811</v>
       </c>
       <c r="D17">
-        <v>0.1001287316719868</v>
+        <v>0.06118769631744669</v>
       </c>
       <c r="E17">
-        <v>0.05588804013551574</v>
+        <v>0.119322055335827</v>
       </c>
       <c r="F17">
-        <v>0.6538926330143866</v>
+        <v>1.017344372151527</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>0.4362309626306349</v>
+        <v>0.9525741909230767</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.245313746051551</v>
+        <v>0.3919637151062432</v>
       </c>
       <c r="L17">
-        <v>0.2118076581471797</v>
+        <v>0.2214290372116778</v>
       </c>
       <c r="M17">
-        <v>0.2919382513152868</v>
+        <v>0.1633446083924355</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.907974797316399</v>
+        <v>3.618939551067854</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.320022482024569</v>
+        <v>0.543899261671271</v>
       </c>
       <c r="C18">
-        <v>0.1474313548115589</v>
+        <v>0.1524667459893436</v>
       </c>
       <c r="D18">
-        <v>0.09842916306801897</v>
+        <v>0.06059060185557996</v>
       </c>
       <c r="E18">
-        <v>0.0556514717601857</v>
+        <v>0.1194080690850079</v>
       </c>
       <c r="F18">
-        <v>0.6472751100808054</v>
+        <v>1.017250866750011</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>0.4366216552694162</v>
+        <v>0.9540798658029672</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.215137839213895</v>
+        <v>0.3827467447112554</v>
       </c>
       <c r="L18">
-        <v>0.2076116330451896</v>
+        <v>0.2205665823250769</v>
       </c>
       <c r="M18">
-        <v>0.284733770710865</v>
+        <v>0.161397431246634</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.899373821058788</v>
+        <v>3.622377980246455</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.30856582518723</v>
+        <v>0.5405651470550765</v>
       </c>
       <c r="C19">
-        <v>0.1469674476664622</v>
+        <v>0.1523038243892429</v>
       </c>
       <c r="D19">
-        <v>0.0978536255716449</v>
+        <v>0.06038817212692038</v>
       </c>
       <c r="E19">
-        <v>0.05557280838486456</v>
+        <v>0.1194379539869832</v>
       </c>
       <c r="F19">
-        <v>0.6450587078344299</v>
+        <v>1.017228550080816</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>0.4367711902487734</v>
+        <v>0.954597137489646</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.204925759585393</v>
+        <v>0.3796253515259025</v>
       </c>
       <c r="L19">
-        <v>0.2061952553828661</v>
+        <v>0.2202762746381524</v>
       </c>
       <c r="M19">
-        <v>0.2822973668181845</v>
+        <v>0.1607389896648783</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.896538117327907</v>
+        <v>3.623573138103865</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.3601542952957</v>
+        <v>0.5555739659356504</v>
       </c>
       <c r="C20">
-        <v>0.1490558873009817</v>
+        <v>0.1530362924900643</v>
       </c>
       <c r="D20">
-        <v>0.1004432426612425</v>
+        <v>0.06129807957940159</v>
       </c>
       <c r="E20">
-        <v>0.05593250973153374</v>
+        <v>0.1193064980060008</v>
       </c>
       <c r="F20">
-        <v>0.6551289861986547</v>
+        <v>1.017366115230459</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>0.4361669152461545</v>
+        <v>0.9522990752703748</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.250901074030224</v>
+        <v>0.3936692399071546</v>
       </c>
       <c r="L20">
-        <v>0.2125863276672106</v>
+        <v>0.2215894674686751</v>
       </c>
       <c r="M20">
-        <v>0.2932730473830887</v>
+        <v>0.16370538479309</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.909603286041431</v>
+        <v>3.618317882699387</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.534110279026891</v>
+        <v>0.606085080212182</v>
       </c>
       <c r="C21">
-        <v>0.1560892309417881</v>
+        <v>0.155484966199964</v>
       </c>
       <c r="D21">
-        <v>0.1091394497194926</v>
+        <v>0.06433676710748415</v>
       </c>
       <c r="E21">
-        <v>0.05724373148565576</v>
+        <v>0.1189177659920926</v>
       </c>
       <c r="F21">
-        <v>0.6907161128924528</v>
+        <v>1.018477986893657</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>0.4353774988183616</v>
+        <v>0.945097880842134</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.405771288876252</v>
+        <v>0.4408047616568354</v>
       </c>
       <c r="L21">
-        <v>0.2343759976648556</v>
+        <v>0.2261198942833715</v>
       </c>
       <c r="M21">
-        <v>0.330368624633337</v>
+        <v>0.1737298658864717</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.95902351753665</v>
+        <v>3.602814667666422</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.648344774898248</v>
+        <v>0.6391559208910849</v>
       </c>
       <c r="C22">
-        <v>0.1607012233205438</v>
+        <v>0.1570759931766474</v>
       </c>
       <c r="D22">
-        <v>0.1148218630241331</v>
+        <v>0.06630880648133086</v>
       </c>
       <c r="E22">
-        <v>0.05818072209599201</v>
+        <v>0.1187030774922526</v>
       </c>
       <c r="F22">
-        <v>0.7153666303874928</v>
+        <v>1.019688573622261</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>0.4358361234706152</v>
+        <v>0.940778926942258</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.507352151881264</v>
+        <v>0.4715705190785684</v>
       </c>
       <c r="L22">
-        <v>0.2488719584789436</v>
+        <v>0.2291685801826873</v>
       </c>
       <c r="M22">
-        <v>0.3547958962771958</v>
+        <v>0.180323846607358</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.995690539349908</v>
+        <v>3.594287219584032</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.587320702644007</v>
+        <v>0.6215002160051881</v>
       </c>
       <c r="C23">
-        <v>0.1582381143273039</v>
+        <v>0.156227694234687</v>
       </c>
       <c r="D23">
-        <v>0.1117889941319063</v>
+        <v>0.06525757497637841</v>
       </c>
       <c r="E23">
-        <v>0.05767307754234352</v>
+        <v>0.1188140640541331</v>
       </c>
       <c r="F23">
-        <v>0.7020770697872578</v>
+        <v>1.018998201635249</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>0.4354988747667079</v>
+        <v>0.9430485896413145</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.453098777594704</v>
+        <v>0.4551540945910233</v>
       </c>
       <c r="L23">
-        <v>0.2411105686818757</v>
+        <v>0.2275334297957272</v>
       </c>
       <c r="M23">
-        <v>0.3417405057821554</v>
+        <v>0.1768006785427616</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.975704270045071</v>
+        <v>3.598691665875464</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.357319139764542</v>
+        <v>0.5547494304790348</v>
       </c>
       <c r="C24">
-        <v>0.1489411455603147</v>
+        <v>0.1529961148249015</v>
       </c>
       <c r="D24">
-        <v>0.1003010561164857</v>
+        <v>0.06124818094369999</v>
       </c>
       <c r="E24">
-        <v>0.05591237904681634</v>
+        <v>0.1193135175462103</v>
       </c>
       <c r="F24">
-        <v>0.6545695944397139</v>
+        <v>1.017356115978465</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>0.4361955534156969</v>
+        <v>0.9524233174174128</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.248374989812135</v>
+        <v>0.3928981978151</v>
       </c>
       <c r="L24">
-        <v>0.2122342170199545</v>
+        <v>0.2215169072961345</v>
       </c>
       <c r="M24">
-        <v>0.292669541740274</v>
+        <v>0.1635422653777141</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.908865650788357</v>
+        <v>3.618598372822731</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.111069479390153</v>
+        <v>0.4830223065543748</v>
       </c>
       <c r="C25">
-        <v>0.1389595291713945</v>
+        <v>0.14947121379344</v>
       </c>
       <c r="D25">
-        <v>0.08789012402227314</v>
+        <v>0.05686458404044714</v>
       </c>
       <c r="E25">
-        <v>0.0543345391807577</v>
+        <v>0.1200218609907555</v>
       </c>
       <c r="F25">
-        <v>0.6087568028827377</v>
+        <v>1.017664340423295</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.4408164338246046</v>
+        <v>0.964199606627048</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.02869042985435</v>
+        <v>0.3255908650441199</v>
       </c>
       <c r="L25">
-        <v>0.182060046830415</v>
+        <v>0.2154063605007508</v>
       </c>
       <c r="M25">
-        <v>0.2403977413381782</v>
+        <v>0.1494272990656142</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.853930673077997</v>
+        <v>3.646963519823373</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_213/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_213/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4304569862216283</v>
+        <v>0.930801726862768</v>
       </c>
       <c r="C2">
-        <v>0.1468426154909395</v>
+        <v>0.1316296350518016</v>
       </c>
       <c r="D2">
-        <v>0.05358668348728912</v>
+        <v>0.0787182799988102</v>
       </c>
       <c r="E2">
-        <v>0.120689926605035</v>
+        <v>0.05342589390187946</v>
       </c>
       <c r="F2">
-        <v>1.019680491591998</v>
+        <v>0.5791294288462154</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>0.9743034593364719</v>
+        <v>0.4472245701292366</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2759078690219496</v>
+        <v>0.8674578129129031</v>
       </c>
       <c r="L2">
-        <v>0.211234619343621</v>
+        <v>0.1605504487358331</v>
       </c>
       <c r="M2">
-        <v>0.1391969961823527</v>
+        <v>0.2023387055970574</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.673779994777703</v>
+        <v>1.826602631068681</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3949936695926226</v>
+        <v>0.8090388156984716</v>
       </c>
       <c r="C3">
-        <v>0.1450407181090654</v>
+        <v>0.1266651331120983</v>
       </c>
       <c r="D3">
-        <v>0.05133406264796037</v>
+        <v>0.07247365457330801</v>
       </c>
       <c r="E3">
-        <v>0.1212344157329568</v>
+        <v>0.05295720674099691</v>
       </c>
       <c r="F3">
-        <v>1.022163523110535</v>
+        <v>0.5613500227305721</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0.9820457855585829</v>
+        <v>0.4532941164217874</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2421641450222012</v>
+        <v>0.7583039651086381</v>
       </c>
       <c r="L3">
-        <v>0.2086123896107495</v>
+        <v>0.1463549215351136</v>
       </c>
       <c r="M3">
-        <v>0.1323664944757859</v>
+        <v>0.1767499176269247</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.695655788436881</v>
+        <v>1.815513330447388</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.37330110422144</v>
+        <v>0.7344025668403731</v>
       </c>
       <c r="C4">
-        <v>0.1439243604575324</v>
+        <v>0.1236157197961987</v>
       </c>
       <c r="D4">
-        <v>0.0499356754888538</v>
+        <v>0.06862293604210379</v>
       </c>
       <c r="E4">
-        <v>0.1216141015285643</v>
+        <v>0.05273865582175041</v>
       </c>
       <c r="F4">
-        <v>1.024239218371044</v>
+        <v>0.5514871382980147</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0.9872413179532558</v>
+        <v>0.4578266818943142</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2214114467003441</v>
+        <v>0.6912770768517049</v>
       </c>
       <c r="L4">
-        <v>0.2071037662165764</v>
+        <v>0.1378088620753246</v>
       </c>
       <c r="M4">
-        <v>0.1282237426441846</v>
+        <v>0.1611199278090147</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.710914529281439</v>
+        <v>1.812137717799061</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3644824466773002</v>
+        <v>0.704009746792849</v>
       </c>
       <c r="C5">
-        <v>0.1434669499546146</v>
+        <v>0.1223724107885147</v>
       </c>
       <c r="D5">
-        <v>0.04936200680949554</v>
+        <v>0.06704929506262403</v>
       </c>
       <c r="E5">
-        <v>0.1217802536035411</v>
+        <v>0.05266653274557065</v>
       </c>
       <c r="F5">
-        <v>1.025223740669674</v>
+        <v>0.5477216290082296</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0.9894696601875523</v>
+        <v>0.4598698820183031</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2129465139255302</v>
+        <v>0.6639532683490899</v>
       </c>
       <c r="L5">
-        <v>0.2065145667823813</v>
+        <v>0.1343665239929024</v>
       </c>
       <c r="M5">
-        <v>0.1265485363598735</v>
+        <v>0.1547685366840348</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.717592163080695</v>
+        <v>1.811592762430834</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3630194159510154</v>
+        <v>0.6989640985176493</v>
       </c>
       <c r="C6">
-        <v>0.1433908479062396</v>
+        <v>0.1221659113804137</v>
       </c>
       <c r="D6">
-        <v>0.04926651990708564</v>
+        <v>0.0667877166247095</v>
       </c>
       <c r="E6">
-        <v>0.121808533753871</v>
+        <v>0.05265556644728875</v>
       </c>
       <c r="F6">
-        <v>1.025395596899742</v>
+        <v>0.5471113715601845</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0.9898463875515056</v>
+        <v>0.4602208160236039</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2115404471210383</v>
+        <v>0.6594153448605198</v>
       </c>
       <c r="L6">
-        <v>0.2064182775000063</v>
+        <v>0.1337972862481323</v>
       </c>
       <c r="M6">
-        <v>0.1262711583505478</v>
+        <v>0.1537149049893536</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.718728741477392</v>
+        <v>1.81155151366896</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.373182085921087</v>
+        <v>0.7339926018836991</v>
       </c>
       <c r="C7">
-        <v>0.143918201689246</v>
+        <v>0.12359895516542</v>
       </c>
       <c r="D7">
-        <v>0.04992795420477592</v>
+        <v>0.06860173173183171</v>
       </c>
       <c r="E7">
-        <v>0.1216162960204965</v>
+        <v>0.05273761516785491</v>
       </c>
       <c r="F7">
-        <v>1.024251934449921</v>
+        <v>0.5514353426485954</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0.9872709201692018</v>
+        <v>0.4578534513968435</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2212973175603707</v>
+        <v>0.6909086287550394</v>
       </c>
       <c r="L7">
-        <v>0.2070957164145852</v>
+        <v>0.1377622777595562</v>
       </c>
       <c r="M7">
-        <v>0.1282010974314929</v>
+        <v>0.1610342013213888</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.71100272515595</v>
+        <v>1.812127047239287</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4182125558631924</v>
+        <v>0.8887854847504002</v>
       </c>
       <c r="C8">
-        <v>0.1462234083133822</v>
+        <v>0.1299179021715631</v>
       </c>
       <c r="D8">
-        <v>0.05281316320583329</v>
+        <v>0.07656837191718324</v>
       </c>
       <c r="E8">
-        <v>0.120868261836069</v>
+        <v>0.05324963430777174</v>
       </c>
       <c r="F8">
-        <v>1.020422305380549</v>
+        <v>0.572773434385617</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0.9768813649245907</v>
+        <v>0.4491461003282566</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2642803546539767</v>
+        <v>0.8298176322710162</v>
       </c>
       <c r="L8">
-        <v>0.2103094620511072</v>
+        <v>0.1556189850789593</v>
       </c>
       <c r="M8">
-        <v>0.1368312832843337</v>
+        <v>0.1934971538008412</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.680943697643826</v>
+        <v>1.822046319000492</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5071461540978532</v>
+        <v>1.193822358426132</v>
       </c>
       <c r="C9">
-        <v>0.150663775999206</v>
+        <v>0.1423175227105062</v>
       </c>
       <c r="D9">
-        <v>0.05834904085646997</v>
+        <v>0.09207492033068831</v>
       </c>
       <c r="E9">
-        <v>0.1197605389680234</v>
+        <v>0.05482522274952117</v>
       </c>
       <c r="F9">
-        <v>1.017282644966215</v>
+        <v>0.6235150011690465</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0.9600102603098222</v>
+        <v>0.4387723104682095</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3482834488540334</v>
+        <v>1.102581323660075</v>
       </c>
       <c r="L9">
-        <v>0.2174139395229133</v>
+        <v>0.1921060512757222</v>
       </c>
       <c r="M9">
-        <v>0.1541568723307023</v>
+        <v>0.2579301998416561</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.636487554016071</v>
+        <v>1.870292514678312</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.572846109590472</v>
+        <v>1.419575030112895</v>
       </c>
       <c r="C10">
-        <v>0.1538763405016397</v>
+        <v>0.1514598555211322</v>
       </c>
       <c r="D10">
-        <v>0.0623410694214499</v>
+        <v>0.1034198317226682</v>
       </c>
       <c r="E10">
-        <v>0.1191646370864952</v>
+        <v>0.05636383650990062</v>
       </c>
       <c r="F10">
-        <v>1.017638205870057</v>
+        <v>0.667008686159015</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0.9497479141042788</v>
+        <v>0.4356859703972518</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4098084395359933</v>
+        <v>1.303828922494517</v>
       </c>
       <c r="L10">
-        <v>0.2231201489644121</v>
+        <v>0.2199888955481839</v>
       </c>
       <c r="M10">
-        <v>0.1671263506892799</v>
+        <v>0.3059298304367246</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.612652957088443</v>
+        <v>1.925575330207636</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6028085274433579</v>
+        <v>1.522808115177099</v>
       </c>
       <c r="C11">
-        <v>0.1553268360063385</v>
+        <v>0.155632653341172</v>
       </c>
       <c r="D11">
-        <v>0.06414067256979905</v>
+        <v>0.1085760591715612</v>
       </c>
       <c r="E11">
-        <v>0.1189406587721411</v>
+        <v>0.05715417607540196</v>
       </c>
       <c r="F11">
-        <v>1.01837772825445</v>
+        <v>0.6883308045759549</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0.9455419240679177</v>
+        <v>0.4353729092909049</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4377527216997237</v>
+        <v>1.395716106230083</v>
       </c>
       <c r="L11">
-        <v>0.2258212045567234</v>
+        <v>0.2329495954924568</v>
       </c>
       <c r="M11">
-        <v>0.1730778080252264</v>
+        <v>0.3279546356205145</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.603725710979575</v>
+        <v>1.955571927281426</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6141648029472719</v>
+        <v>1.561992296647219</v>
       </c>
       <c r="C12">
-        <v>0.1558745098917882</v>
+        <v>0.1572153737024138</v>
       </c>
       <c r="D12">
-        <v>0.06481975759362513</v>
+        <v>0.1105283893688593</v>
       </c>
       <c r="E12">
-        <v>0.1188625988993568</v>
+        <v>0.05746713249302537</v>
       </c>
       <c r="F12">
-        <v>1.018740795757601</v>
+        <v>0.6966424445357546</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0.9440156794015095</v>
+        <v>0.4354207232503455</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4483277895185438</v>
+        <v>1.430573151686957</v>
       </c>
       <c r="L12">
-        <v>0.2268591028728935</v>
+        <v>0.2379009834205448</v>
       </c>
       <c r="M12">
-        <v>0.1753387809628748</v>
+        <v>0.3363260378128032</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.600620486997514</v>
+        <v>1.967676155273438</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6117185844162805</v>
+        <v>1.55354894063143</v>
       </c>
       <c r="C13">
-        <v>0.1557566299965458</v>
+        <v>0.1568743824967953</v>
       </c>
       <c r="D13">
-        <v>0.06467361104114389</v>
+        <v>0.1101079225589885</v>
       </c>
       <c r="E13">
-        <v>0.1188791102940385</v>
+        <v>0.05739911255818164</v>
       </c>
       <c r="F13">
-        <v>1.018658910971936</v>
+        <v>0.6948415514229183</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0.944341427443625</v>
+        <v>0.4354028688226776</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.44605057151594</v>
+        <v>1.423063122526628</v>
       </c>
       <c r="L13">
-        <v>0.2266349039133928</v>
+        <v>0.2368326198737805</v>
       </c>
       <c r="M13">
-        <v>0.1748515180672001</v>
+        <v>0.3345216601332766</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.601277008399393</v>
+        <v>1.965035352773128</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.603742615211786</v>
+        <v>1.526029887820471</v>
       </c>
       <c r="C14">
-        <v>0.1553719256346824</v>
+        <v>0.1557628096869053</v>
       </c>
       <c r="D14">
-        <v>0.06419658927937633</v>
+        <v>0.1087366803294643</v>
       </c>
       <c r="E14">
-        <v>0.1189341014401162</v>
+        <v>0.05717964519813457</v>
       </c>
       <c r="F14">
-        <v>1.018405934393741</v>
+        <v>0.6890097519242104</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0.9454150269106165</v>
+        <v>0.435373452228724</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4386228787441269</v>
+        <v>1.398582510680427</v>
       </c>
       <c r="L14">
-        <v>0.2259062915129988</v>
+        <v>0.2333560564321147</v>
       </c>
       <c r="M14">
-        <v>0.1732636743756899</v>
+        <v>0.3286427100054965</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.603464724752314</v>
+        <v>1.956552528690139</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5988584073218419</v>
+        <v>1.50918611929572</v>
       </c>
       <c r="C15">
-        <v>0.1551360742764558</v>
+        <v>0.1550822920845434</v>
       </c>
       <c r="D15">
-        <v>0.06390408814574045</v>
+        <v>0.1078967397788944</v>
       </c>
       <c r="E15">
-        <v>0.118968664408353</v>
+        <v>0.05704701617900909</v>
       </c>
       <c r="F15">
-        <v>1.018261789715154</v>
+        <v>0.6854690316819188</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0.9460812936542524</v>
+        <v>0.4353773913855576</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4340722977313476</v>
+        <v>1.383595812028119</v>
       </c>
       <c r="L15">
-        <v>0.2254619554668551</v>
+        <v>0.2312323327098227</v>
       </c>
       <c r="M15">
-        <v>0.1722920191162842</v>
+        <v>0.3250458499108362</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.604840618002925</v>
+        <v>1.951455076389692</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5708894520980436</v>
+        <v>1.412840555692952</v>
       </c>
       <c r="C16">
-        <v>0.1537813251886746</v>
+        <v>0.15118748103869</v>
       </c>
       <c r="D16">
-        <v>0.06222312885029879</v>
+        <v>0.1030828042722902</v>
       </c>
       <c r="E16">
-        <v>0.1191802209127495</v>
+        <v>0.0563140617515927</v>
       </c>
       <c r="F16">
-        <v>1.017601497819555</v>
+        <v>0.6656475384396288</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0.9500320884208335</v>
+        <v>0.43572917914301</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4079812889665106</v>
+        <v>1.297831755312586</v>
       </c>
       <c r="L16">
-        <v>0.2229457409249846</v>
+        <v>0.21914775858626</v>
       </c>
       <c r="M16">
-        <v>0.1667384355704229</v>
+        <v>0.3044945931149741</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.61327490636981</v>
+        <v>1.923716571251589</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5537501943406653</v>
+        <v>1.353883448299825</v>
       </c>
       <c r="C17">
-        <v>0.1529474149506811</v>
+        <v>0.1488020944331083</v>
       </c>
       <c r="D17">
-        <v>0.06118769631744669</v>
+        <v>0.1001287316721076</v>
       </c>
       <c r="E17">
-        <v>0.119322055335827</v>
+        <v>0.05588804013551396</v>
       </c>
       <c r="F17">
-        <v>1.017344372151527</v>
+        <v>0.6538926330143866</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0.9525741909230767</v>
+        <v>0.4362309626306313</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3919637151062432</v>
+        <v>1.245313746051494</v>
       </c>
       <c r="L17">
-        <v>0.2214290372116778</v>
+        <v>0.2118076581472366</v>
       </c>
       <c r="M17">
-        <v>0.1633446083924355</v>
+        <v>0.2919382513152868</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.618939551067854</v>
+        <v>1.907974797316399</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.543899261671271</v>
+        <v>1.320022482024768</v>
       </c>
       <c r="C18">
-        <v>0.1524667459893436</v>
+        <v>0.1474313548115447</v>
       </c>
       <c r="D18">
-        <v>0.06059060185557996</v>
+        <v>0.09842916306789817</v>
       </c>
       <c r="E18">
-        <v>0.1194080690850079</v>
+        <v>0.05565147176018037</v>
       </c>
       <c r="F18">
-        <v>1.017250866750011</v>
+        <v>0.6472751100808054</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0.9540798658029672</v>
+        <v>0.4366216552694304</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3827467447112554</v>
+        <v>1.215137839213924</v>
       </c>
       <c r="L18">
-        <v>0.2205665823250769</v>
+        <v>0.2076116330453175</v>
       </c>
       <c r="M18">
-        <v>0.161397431246634</v>
+        <v>0.2847337707108863</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.622377980246455</v>
+        <v>1.899373821058873</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5405651470550765</v>
+        <v>1.308565825187372</v>
       </c>
       <c r="C19">
-        <v>0.1523038243892429</v>
+        <v>0.1469674476671159</v>
       </c>
       <c r="D19">
-        <v>0.06038817212692038</v>
+        <v>0.09785362557174437</v>
       </c>
       <c r="E19">
-        <v>0.1194379539869832</v>
+        <v>0.05557280838484324</v>
       </c>
       <c r="F19">
-        <v>1.017228550080816</v>
+        <v>0.6450587078344228</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0.954597137489646</v>
+        <v>0.4367711902487521</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3796253515259025</v>
+        <v>1.204925759585251</v>
       </c>
       <c r="L19">
-        <v>0.2202762746381524</v>
+        <v>0.2061952553828945</v>
       </c>
       <c r="M19">
-        <v>0.1607389896648783</v>
+        <v>0.2822973668181845</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.623573138103865</v>
+        <v>1.896538117327907</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5555739659356504</v>
+        <v>1.360154295295871</v>
       </c>
       <c r="C20">
-        <v>0.1530362924900643</v>
+        <v>0.1490558873009817</v>
       </c>
       <c r="D20">
-        <v>0.06129807957940159</v>
+        <v>0.1004432426611785</v>
       </c>
       <c r="E20">
-        <v>0.1193064980060008</v>
+        <v>0.05593250973155683</v>
       </c>
       <c r="F20">
-        <v>1.017366115230459</v>
+        <v>0.6551289861986618</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0.9522990752703748</v>
+        <v>0.4361669152461509</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3936692399071546</v>
+        <v>1.250901074030168</v>
       </c>
       <c r="L20">
-        <v>0.2215894674686751</v>
+        <v>0.2125863276672391</v>
       </c>
       <c r="M20">
-        <v>0.16370538479309</v>
+        <v>0.29327304738311</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.618317882699387</v>
+        <v>1.909603286041403</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.606085080212182</v>
+        <v>1.534110279026777</v>
       </c>
       <c r="C21">
-        <v>0.155484966199964</v>
+        <v>0.1560892309417738</v>
       </c>
       <c r="D21">
-        <v>0.06433676710748415</v>
+        <v>0.1091394497193576</v>
       </c>
       <c r="E21">
-        <v>0.1189177659920926</v>
+        <v>0.05724373148566464</v>
       </c>
       <c r="F21">
-        <v>1.018477986893657</v>
+        <v>0.6907161128924528</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0.945097880842134</v>
+        <v>0.4353774988183687</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4408047616568354</v>
+        <v>1.405771288876338</v>
       </c>
       <c r="L21">
-        <v>0.2261198942833715</v>
+        <v>0.2343759976647419</v>
       </c>
       <c r="M21">
-        <v>0.1737298658864717</v>
+        <v>0.3303686246333157</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.602814667666422</v>
+        <v>1.95902351753665</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6391559208910849</v>
+        <v>1.648344774898078</v>
       </c>
       <c r="C22">
-        <v>0.1570759931766474</v>
+        <v>0.160701223320217</v>
       </c>
       <c r="D22">
-        <v>0.06630880648133086</v>
+        <v>0.1148218630240265</v>
       </c>
       <c r="E22">
-        <v>0.1187030774922526</v>
+        <v>0.05818072209599201</v>
       </c>
       <c r="F22">
-        <v>1.019688573622261</v>
+        <v>0.715366630387507</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0.940778926942258</v>
+        <v>0.4358361234706294</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4715705190785684</v>
+        <v>1.507352151881264</v>
       </c>
       <c r="L22">
-        <v>0.2291685801826873</v>
+        <v>0.248871958478972</v>
       </c>
       <c r="M22">
-        <v>0.180323846607358</v>
+        <v>0.3547958962771887</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.594287219584032</v>
+        <v>1.995690539349994</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6215002160051881</v>
+        <v>1.587320702644121</v>
       </c>
       <c r="C23">
-        <v>0.156227694234687</v>
+        <v>0.1582381143273039</v>
       </c>
       <c r="D23">
-        <v>0.06525757497637841</v>
+        <v>0.1117889941319206</v>
       </c>
       <c r="E23">
-        <v>0.1188140640541331</v>
+        <v>0.05767307754234352</v>
       </c>
       <c r="F23">
-        <v>1.018998201635249</v>
+        <v>0.7020770697872294</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0.9430485896413145</v>
+        <v>0.4354988747666937</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4551540945910233</v>
+        <v>1.453098777594704</v>
       </c>
       <c r="L23">
-        <v>0.2275334297957272</v>
+        <v>0.2411105686818473</v>
       </c>
       <c r="M23">
-        <v>0.1768006785427616</v>
+        <v>0.3417405057821554</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.598691665875464</v>
+        <v>1.9757042700451</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5547494304790348</v>
+        <v>1.357319139764428</v>
       </c>
       <c r="C24">
-        <v>0.1529961148249015</v>
+        <v>0.1489411455605492</v>
       </c>
       <c r="D24">
-        <v>0.06124818094369999</v>
+        <v>0.1003010561167343</v>
       </c>
       <c r="E24">
-        <v>0.1193135175462103</v>
+        <v>0.05591237904681279</v>
       </c>
       <c r="F24">
-        <v>1.017356115978465</v>
+        <v>0.6545695944396854</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0.9524233174174128</v>
+        <v>0.4361955534156898</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3928981978151</v>
+        <v>1.248374989812078</v>
       </c>
       <c r="L24">
-        <v>0.2215169072961345</v>
+        <v>0.2122342170198266</v>
       </c>
       <c r="M24">
-        <v>0.1635422653777141</v>
+        <v>0.292669541740274</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.618598372822731</v>
+        <v>1.908865650788272</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4830223065543748</v>
+        <v>1.111069479390153</v>
       </c>
       <c r="C25">
-        <v>0.14947121379344</v>
+        <v>0.138959529172098</v>
       </c>
       <c r="D25">
-        <v>0.05686458404044714</v>
+        <v>0.08789012402199603</v>
       </c>
       <c r="E25">
-        <v>0.1200218609907555</v>
+        <v>0.05433453918078435</v>
       </c>
       <c r="F25">
-        <v>1.017664340423295</v>
+        <v>0.6087568028827448</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0.964199606627048</v>
+        <v>0.4408164338245939</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3255908650441199</v>
+        <v>1.028690429854464</v>
       </c>
       <c r="L25">
-        <v>0.2154063605007508</v>
+        <v>0.1820600468304434</v>
       </c>
       <c r="M25">
-        <v>0.1494272990656142</v>
+        <v>0.2403977413381853</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.646963519823373</v>
+        <v>1.853930673077969</v>
       </c>
     </row>
   </sheetData>
